--- a/NBAcademix/media/performance_documents/THIRD__YEAR_-ACADEMIC_YEAR_2021-22.xlsx
+++ b/NBAcademix/media/performance_documents/THIRD__YEAR_-ACADEMIC_YEAR_2021-22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAISHANAVI RAO P\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08A6E96D-DE7A-49F0-9733-861F46985CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8FE3A3-9EF1-4FA7-A0E3-869316C191E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3276" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-22" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="254">
   <si>
     <t>SL.NO</t>
   </si>
@@ -40,18 +40,6 @@
   </si>
   <si>
     <t>DETAINED?</t>
-  </si>
-  <si>
-    <t>Mean of percentage of all successful students(x)</t>
-  </si>
-  <si>
-    <t>Total no.of students appeared in the examination</t>
-  </si>
-  <si>
-    <t>Academic Performance Index(API)=X*(Y/Z)</t>
-  </si>
-  <si>
-    <t>Total number of sucessful students(y)</t>
   </si>
   <si>
     <t>NO</t>
@@ -1222,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1247,10 +1235,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -1264,10 +1252,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>6.67</v>
@@ -1280,7 +1268,7 @@
         <v>6.67</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1288,10 +1276,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>6.73</v>
@@ -1304,7 +1292,7 @@
         <v>6.73</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1312,10 +1300,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>7.72</v>
@@ -1328,7 +1316,7 @@
         <v>7.72</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1336,10 +1324,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D5">
         <v>7.35</v>
@@ -1352,7 +1340,7 @@
         <v>7.35</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1360,10 +1348,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>8.68</v>
@@ -1376,7 +1364,7 @@
         <v>8.68</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1384,10 +1372,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>7.19</v>
@@ -1400,7 +1388,7 @@
         <v>7.19</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1408,10 +1396,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>8.16</v>
@@ -1424,7 +1412,7 @@
         <v>8.16</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1432,10 +1420,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D9">
         <v>6.96</v>
@@ -1448,7 +1436,7 @@
         <v>6.96</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1456,10 +1444,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10">
         <v>6.76</v>
@@ -1472,7 +1460,7 @@
         <v>6.76</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1480,10 +1468,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>8.1199999999999992</v>
@@ -1496,7 +1484,7 @@
         <v>8.1199999999999992</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1504,10 +1492,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D12">
         <v>9.0399999999999991</v>
@@ -1520,7 +1508,7 @@
         <v>9.0399999999999991</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1528,10 +1516,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13">
         <v>8.6</v>
@@ -1544,7 +1532,7 @@
         <v>8.6</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1552,10 +1540,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D14">
         <v>6.92</v>
@@ -1568,7 +1556,7 @@
         <v>6.92</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1576,10 +1564,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <v>8.32</v>
@@ -1592,7 +1580,7 @@
         <v>8.32</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1600,10 +1588,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D16">
         <v>8.7200000000000006</v>
@@ -1616,7 +1604,7 @@
         <v>8.7200000000000006</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1624,10 +1612,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D17">
         <v>6.75</v>
@@ -1640,7 +1628,7 @@
         <v>6.75</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1648,10 +1636,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D18">
         <v>7.68</v>
@@ -1664,7 +1652,7 @@
         <v>7.68</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1672,10 +1660,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D19">
         <v>7.84</v>
@@ -1688,7 +1676,7 @@
         <v>7.84</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1696,10 +1684,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D20">
         <v>7.76</v>
@@ -1712,7 +1700,7 @@
         <v>7.76</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1720,10 +1708,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D21">
         <v>5.65</v>
@@ -1736,7 +1724,7 @@
         <v>5.65</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1744,10 +1732,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D22">
         <v>7.08</v>
@@ -1760,7 +1748,7 @@
         <v>7.08</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1768,10 +1756,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D23">
         <v>5.57</v>
@@ -1784,7 +1772,7 @@
         <v>5.57</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1792,10 +1780,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D24">
         <v>7.28</v>
@@ -1808,7 +1796,7 @@
         <v>7.28</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1816,10 +1804,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D25">
         <v>5.52</v>
@@ -1832,7 +1820,7 @@
         <v>5.52</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1840,10 +1828,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D26">
         <v>6.43</v>
@@ -1856,7 +1844,7 @@
         <v>6.43</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1864,10 +1852,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D27">
         <v>7.44</v>
@@ -1880,7 +1868,7 @@
         <v>7.44</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1888,10 +1876,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D28">
         <v>7.16</v>
@@ -1904,7 +1892,7 @@
         <v>7.16</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1912,10 +1900,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D29">
         <v>5.52</v>
@@ -1928,7 +1916,7 @@
         <v>5.52</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1936,10 +1924,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D30">
         <v>2.5</v>
@@ -1952,7 +1940,7 @@
         <v>2.5</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1960,10 +1948,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D31">
         <v>3.03</v>
@@ -1976,7 +1964,7 @@
         <v>3.03</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1984,10 +1972,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D32">
         <v>7.2</v>
@@ -2000,7 +1988,7 @@
         <v>7.2</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2008,10 +1996,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D33">
         <v>7.52</v>
@@ -2024,7 +2012,7 @@
         <v>7.52</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2032,10 +2020,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D34">
         <v>8.4</v>
@@ -2048,7 +2036,7 @@
         <v>8.4</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2056,10 +2044,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D35">
         <v>8.52</v>
@@ -2072,7 +2060,7 @@
         <v>8.52</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2080,10 +2068,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D36">
         <v>6.48</v>
@@ -2096,7 +2084,7 @@
         <v>6.48</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2104,10 +2092,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D37">
         <v>7.36</v>
@@ -2120,7 +2108,7 @@
         <v>7.36</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2128,10 +2116,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D38">
         <v>9</v>
@@ -2144,7 +2132,7 @@
         <v>9</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2152,10 +2140,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D39">
         <v>8.36</v>
@@ -2168,7 +2156,7 @@
         <v>8.36</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2176,10 +2164,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D40">
         <v>7.6</v>
@@ -2192,7 +2180,7 @@
         <v>7.6</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2200,10 +2188,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D41">
         <v>7.76</v>
@@ -2216,7 +2204,7 @@
         <v>7.76</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2224,10 +2212,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D42">
         <v>8.92</v>
@@ -2240,7 +2228,7 @@
         <v>8.92</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2248,10 +2236,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D43">
         <v>7.44</v>
@@ -2264,7 +2252,7 @@
         <v>7.44</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2272,10 +2260,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D44">
         <v>6.66</v>
@@ -2288,7 +2276,7 @@
         <v>6.66</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2296,10 +2284,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D45">
         <v>6.96</v>
@@ -2312,7 +2300,7 @@
         <v>6.96</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2320,10 +2308,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D46">
         <v>8.1999999999999993</v>
@@ -2336,7 +2324,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2344,10 +2332,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D47">
         <v>8.52</v>
@@ -2360,7 +2348,7 @@
         <v>8.52</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2368,10 +2356,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D48">
         <v>7.92</v>
@@ -2384,7 +2372,7 @@
         <v>7.92</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2392,10 +2380,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D49">
         <v>7</v>
@@ -2408,7 +2396,7 @@
         <v>7</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2416,10 +2404,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D50">
         <v>6.92</v>
@@ -2432,7 +2420,7 @@
         <v>6.92</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2440,10 +2428,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D51">
         <v>8.08</v>
@@ -2456,7 +2444,7 @@
         <v>8.08</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2464,10 +2452,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D52">
         <v>7.24</v>
@@ -2480,7 +2468,7 @@
         <v>7.24</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2488,10 +2476,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D53">
         <v>7.44</v>
@@ -2504,7 +2492,7 @@
         <v>7.44</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2512,10 +2500,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D54">
         <v>8.1199999999999992</v>
@@ -2528,7 +2516,7 @@
         <v>8.1199999999999992</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2536,10 +2524,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D55">
         <v>7.24</v>
@@ -2552,7 +2540,7 @@
         <v>7.24</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2560,10 +2548,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D56" s="7">
         <v>7.28</v>
@@ -2576,7 +2564,7 @@
         <v>7.28</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2584,10 +2572,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D57" s="7">
         <v>7</v>
@@ -2600,7 +2588,7 @@
         <v>7</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2608,10 +2596,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D58" s="7">
         <v>7.24</v>
@@ -2624,7 +2612,7 @@
         <v>7.24</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2632,10 +2620,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D59" s="7">
         <v>8.2799999999999994</v>
@@ -2648,7 +2636,7 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2656,10 +2644,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D60" s="7">
         <v>6.72</v>
@@ -2672,7 +2660,7 @@
         <v>6.72</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2680,10 +2668,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D61" s="7">
         <v>7.48</v>
@@ -2696,7 +2684,7 @@
         <v>7.48</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2704,10 +2692,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D62" s="7">
         <v>5.5</v>
@@ -2720,7 +2708,7 @@
         <v>5.5</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -2728,10 +2716,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C63" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D63" s="7">
         <v>2.68</v>
@@ -2750,10 +2738,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C64" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D64" s="7">
         <v>7.48</v>
@@ -2772,10 +2760,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D65" s="7">
         <v>7.28</v>
@@ -2794,10 +2782,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D66">
         <v>8.8800000000000008</v>
@@ -2816,10 +2804,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D67">
         <v>8.8000000000000007</v>
@@ -2838,10 +2826,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D68">
         <v>8.08</v>
@@ -2860,10 +2848,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C69" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D69">
         <v>5.71</v>
@@ -2882,10 +2870,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D70">
         <v>7.76</v>
@@ -2904,10 +2892,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C71" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D71">
         <v>7.48</v>
@@ -2926,10 +2914,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C72" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D72">
         <v>7.24</v>
@@ -2948,10 +2936,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C73" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D73">
         <v>8.1999999999999993</v>
@@ -2970,10 +2958,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C74" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D74">
         <v>8.6</v>
@@ -2992,10 +2980,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C75" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D75">
         <v>7.28</v>
@@ -3014,10 +3002,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C76" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D76">
         <v>7.4</v>
@@ -3036,10 +3024,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C77" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D77">
         <v>7.88</v>
@@ -3058,10 +3046,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C78" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D78">
         <v>7.64</v>
@@ -3080,10 +3068,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C79" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D79">
         <v>6.92</v>
@@ -3102,10 +3090,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C80" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D80">
         <v>8.44</v>
@@ -3124,10 +3112,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C81" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D81">
         <v>7.4</v>
@@ -3146,10 +3134,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C82" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D82">
         <v>6.92</v>
@@ -3168,10 +3156,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C83" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D83">
         <v>8.48</v>
@@ -3190,10 +3178,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C84" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D84">
         <v>7.4</v>
@@ -3212,10 +3200,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C85" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D85">
         <v>8.48</v>
@@ -3234,10 +3222,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C86" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D86">
         <v>8.48</v>
@@ -3256,10 +3244,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C87" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D87">
         <v>7.96</v>
@@ -3278,10 +3266,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C88" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D88">
         <v>8.8800000000000008</v>
@@ -3300,10 +3288,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C89" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D89">
         <v>7.48</v>
@@ -3322,10 +3310,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C90" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D90">
         <v>7.72</v>
@@ -3344,10 +3332,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C91" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D91">
         <v>8.16</v>
@@ -3366,10 +3354,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C92" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D92">
         <v>7.56</v>
@@ -3388,10 +3376,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C93" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D93">
         <v>8.48</v>
@@ -3410,10 +3398,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C94" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D94">
         <v>9.0399999999999991</v>
@@ -3432,10 +3420,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C95" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D95">
         <v>7.08</v>
@@ -3454,10 +3442,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C96" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D96">
         <v>7.72</v>
@@ -3476,10 +3464,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C97" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D97">
         <v>7.44</v>
@@ -3498,10 +3486,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C98" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D98">
         <v>8.8800000000000008</v>
@@ -3520,10 +3508,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D99">
         <v>7.64</v>
@@ -3542,10 +3530,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C100" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D100">
         <v>7.76</v>
@@ -3564,10 +3552,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C101" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D101">
         <v>8.08</v>
@@ -3586,10 +3574,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C102" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D102">
         <v>8.0399999999999991</v>
@@ -3608,10 +3596,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C103" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D103">
         <v>5.92</v>
@@ -3630,10 +3618,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C104" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D104">
         <v>7.36</v>
@@ -3652,10 +3640,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C105" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D105">
         <v>8.1999999999999993</v>
@@ -3674,10 +3662,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C106" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D106">
         <v>8.76</v>
@@ -3696,10 +3684,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C107" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D107">
         <v>6.53</v>
@@ -3718,10 +3706,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C108" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D108">
         <v>9</v>
@@ -3740,10 +3728,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C109" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D109">
         <v>7</v>
@@ -3762,10 +3750,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C110" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D110">
         <v>8.44</v>
@@ -3784,10 +3772,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C111" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D111">
         <v>8.1199999999999992</v>
@@ -3806,10 +3794,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C112" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D112">
         <v>7.04</v>
@@ -3828,10 +3816,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C113" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D113">
         <v>6.92</v>
@@ -3850,10 +3838,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C114" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D114">
         <v>8.1999999999999993</v>
@@ -3872,10 +3860,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C115" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D115">
         <v>7.4</v>
@@ -3894,10 +3882,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C116" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D116">
         <v>6.6</v>
@@ -3916,10 +3904,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C117" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D117">
         <v>8.6</v>
@@ -3938,10 +3926,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C118" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D118">
         <v>8.16</v>
@@ -3960,10 +3948,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C119" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D119">
         <v>6.5</v>
@@ -3982,10 +3970,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C120" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D120">
         <v>7.12</v>
@@ -4004,10 +3992,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C121" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D121">
         <v>6.64</v>
@@ -4026,10 +4014,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C122" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D122">
         <v>5.72</v>
@@ -4048,10 +4036,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C123" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D123">
         <v>6.44</v>
@@ -4070,10 +4058,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C124" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D124">
         <v>5.85</v>
@@ -4088,47 +4076,27 @@
       <c r="G124" s="5"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F125" s="3">
-        <f>SUM(F2:F124)/123</f>
-        <v>7.4216260162601646</v>
-      </c>
+      <c r="F125" s="3"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B126" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="B126" s="9"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="8">
-        <v>7.4</v>
-      </c>
+      <c r="D126" s="8"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B127" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="B127" s="9"/>
       <c r="C127" s="9"/>
-      <c r="D127" s="8">
-        <v>122</v>
-      </c>
+      <c r="D127" s="8"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B128" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="B128" s="9"/>
       <c r="C128" s="9"/>
-      <c r="D128" s="8">
-        <v>123</v>
-      </c>
+      <c r="D128" s="8"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B129" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="B129" s="9"/>
       <c r="C129" s="9"/>
-      <c r="D129" s="8">
-        <f>7.4*(122/123)</f>
-        <v>7.3398373983739837</v>
-      </c>
+      <c r="D129" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
